--- a/excel-ai-custom-data-types-demo.xlsx
+++ b/excel-ai-custom-data-types-demo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DA84062-F594-42A7-A0E1-8A1B61BF0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401D1674-E762-4A9A-A2B9-2AB8DC3747D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{913DA12C-E1C5-4196-8BC3-F88CCD61E7F0}"/>
+    <workbookView xWindow="4260" yWindow="1635" windowWidth="14040" windowHeight="9083" xr2:uid="{913DA12C-E1C5-4196-8BC3-F88CCD61E7F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="countries" sheetId="1" r:id="rId1"/>
+    <sheet name="stocks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,25 +36,218 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="16">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="45"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="46"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="48"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="108"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="109"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="111"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="153"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="154"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="156"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="259"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="262"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="269"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="275"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="278"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="16">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+    <bk>
+      <rc t="2" v="12"/>
+    </bk>
+    <bk>
+      <rc t="2" v="13"/>
+    </bk>
+    <bk>
+      <rc t="2" v="14"/>
+    </bk>
+    <bk>
+      <rc t="2" v="15"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Belgium</t>
+    <t>country</t>
   </si>
   <si>
-    <t>Netherland</t>
+    <t>Area</t>
   </si>
   <si>
-    <t>Luxembourg</t>
+    <t>Flag</t>
   </si>
   <si>
-    <t>country</t>
+    <t>company</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
@@ -83,13 +277,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -102,11 +301,4043 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_imageurl">
+      <keyFlags>
+        <key name="Blip Identifier">
+          <flag name="ShowInCardView" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentity2">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentity2core">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataRetrievedTime">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%EntityDomainIdString">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%InfoToolTipLabelNames">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%InfoToolTipLabelValues">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%InfoToolTipLabelValuesType">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderString">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%ClassificationId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_webimage">
+      <keyFlags>
+        <key name="WebImageIdentifier">
+          <flag name="ShowInCardView" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdRichValueWebImage.xml><?xml version="1.0" encoding="utf-8"?>
+<webImagesSrd xmlns="http://schemas.microsoft.com/office/spreadsheetml/2020/richdatawebimage" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <webImageSrd>
+    <address r:id="rId1"/>
+    <moreImagesAddress r:id="rId2"/>
+    <blip r:id="rId3"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId4"/>
+    <moreImagesAddress r:id="rId5"/>
+    <blip r:id="rId6"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId7"/>
+    <moreImagesAddress r:id="rId8"/>
+    <blip r:id="rId9"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId10"/>
+    <moreImagesAddress r:id="rId11"/>
+    <blip r:id="rId12"/>
+  </webImageSrd>
+</webImagesSrd>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="14">
+  <a r="3">
+    <v t="s">French</v>
+    <v t="s">Dutch</v>
+    <v t="s">German</v>
+  </a>
+  <a r="6">
+    <v t="s">Limburg</v>
+    <v t="s">Luxembourg</v>
+    <v t="s">Flemish Brabant</v>
+    <v t="s">East Flanders</v>
+    <v t="s">West Flanders</v>
+    <v t="s">Walloon Brabant</v>
+  </a>
+  <a r="2">
+    <v t="s">Central European Summer Time</v>
+    <v t="s">Central European Time Zone</v>
+  </a>
+  <a r="3">
+    <v t="r">66</v>
+    <v t="r">67</v>
+    <v t="r">68</v>
+  </a>
+  <a r="1">
+    <v t="s">Dutch</v>
+  </a>
+  <a r="15">
+    <v t="r">86</v>
+    <v t="r">87</v>
+    <v t="r">88</v>
+    <v t="r">89</v>
+    <v t="r">90</v>
+    <v t="r">91</v>
+    <v t="r">92</v>
+    <v t="r">93</v>
+    <v t="r">94</v>
+    <v t="r">95</v>
+    <v t="r">96</v>
+    <v t="r">97</v>
+    <v t="r">98</v>
+    <v t="r">99</v>
+    <v t="r">100</v>
+  </a>
+  <a r="2">
+    <v t="s">Central European Time Zone</v>
+    <v t="s">Atlantic Time Zone</v>
+  </a>
+  <a r="4">
+    <v t="r">128</v>
+    <v t="r">129</v>
+    <v t="r">130</v>
+    <v t="s">Dan Kersch (Deputy prime minister)</v>
+  </a>
+  <a r="3">
+    <v t="s">Luxembourgish</v>
+    <v t="s">German</v>
+    <v t="s">French</v>
+  </a>
+  <a r="3">
+    <v t="s">Diekirch District</v>
+    <v t="s">Grevenmacher District</v>
+    <v t="s">Luxembourg District</v>
+  </a>
+  <a r="2">
+    <v t="r">175</v>
+    <v t="r">176</v>
+  </a>
+  <a r="1">
+    <v t="s">None</v>
+  </a>
+  <a r="59">
+    <v t="r">195</v>
+    <v t="r">174</v>
+    <v t="r">196</v>
+    <v t="r">197</v>
+    <v t="r">198</v>
+    <v t="r">199</v>
+    <v t="r">200</v>
+    <v t="r">201</v>
+    <v t="r">202</v>
+    <v t="r">203</v>
+    <v t="r">204</v>
+    <v t="r">160</v>
+    <v t="r">205</v>
+    <v t="r">206</v>
+    <v t="r">207</v>
+    <v t="r">208</v>
+    <v t="r">209</v>
+    <v t="r">210</v>
+    <v t="r">211</v>
+    <v t="r">212</v>
+    <v t="r">213</v>
+    <v t="r">214</v>
+    <v t="r">215</v>
+    <v t="r">216</v>
+    <v t="r">217</v>
+    <v t="r">218</v>
+    <v t="r">219</v>
+    <v t="r">220</v>
+    <v t="r">221</v>
+    <v t="r">222</v>
+    <v t="r">223</v>
+    <v t="r">224</v>
+    <v t="r">225</v>
+    <v t="r">226</v>
+    <v t="r">227</v>
+    <v t="r">228</v>
+    <v t="r">229</v>
+    <v t="r">230</v>
+    <v t="r">231</v>
+    <v t="r">232</v>
+    <v t="r">233</v>
+    <v t="r">234</v>
+    <v t="r">235</v>
+    <v t="r">236</v>
+    <v t="r">237</v>
+    <v t="r">238</v>
+    <v t="r">239</v>
+    <v t="r">240</v>
+    <v t="r">241</v>
+    <v t="r">242</v>
+    <v t="r">243</v>
+    <v t="r">244</v>
+    <v t="r">245</v>
+    <v t="r">246</v>
+    <v t="r">247</v>
+    <v t="r">248</v>
+    <v t="r">249</v>
+    <v t="r">250</v>
+    <v t="r">251</v>
+  </a>
+  <a r="9">
+    <v t="s">Chamorro Time Zone</v>
+    <v t="s">Atlantic Time Zone</v>
+    <v t="s">Eastern Time Zone</v>
+    <v t="s">Central Time Zone</v>
+    <v t="s">Mountain Time Zone</v>
+    <v t="s">Pacific Time Zone</v>
+    <v t="s">Alaska Time Zone</v>
+    <v t="s">Hawaii-Aleutian Time Zone</v>
+    <v t="s">Samoa Time Zone</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="279">
+  <rv s="0">
+    <v>536870912</v>
+    <v>Belgium</v>
+    <v>ac5bcc34-e1cd-2e76-9d31-fb1be1159a5e</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>0.44610305443465298</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>30688</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>32000</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>10.3</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>32</fb>
+    <v>31</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>City of Brussels</v>
+    <v>95e13b04-adba-5f35-d2c5-f828990ca1fd</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>96889.474000000002</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>117.11045718797099</fb>
+    <v>32</v>
+  </rv>
+  <rv s="1">
+    <fb>1.43681956996435E-2</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>7709.1230778824702</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>1.62</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>0.22583884638555801</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>75.870784353682396</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>1.43</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>529606710418.03802</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>1.0390557</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.79661730000000008</fb>
+    <v>28</v>
+  </rv>
+  <rv s="2">
+    <v>0</v>
+    <v>26</v>
+    <v>36</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Belgium</v>
+  </rv>
+  <rv s="1">
+    <fb>2.9</fb>
+    <v>33</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Brussels</v>
+    <v>f77206fd-fe4f-6c8e-5588-1d0651b151ea</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="3">
+    <v>https://www.bing.com/search?q=belgium&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>81.595121951219497</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>321093542983.70203</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>5</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>10.31</fb>
+    <v>34</v>
+  </rv>
+  <rv s="4">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <fb>0.17567192210000002</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>3.0709</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>11592952</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.22699999999999998</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.21899999999999997</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.36299999999999999</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>3.3000000000000002E-2</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>8.6999999999999994E-2</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.14199999999999999</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.18100000000000002</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.53562000274658206</fb>
+    <v>28</v>
+  </rv>
+  <rv s="4">
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <fb>0.23994106172459101</fb>
+    <v>28</v>
+  </rv>
+  <rv s="4">
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <fb>0.55399999999999994</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>5.5890002250671394E-2</fb>
+    <v>37</v>
+  </rv>
+  <rv s="1">
+    <fb>11259082</fb>
+    <v>29</v>
+  </rv>
+  <rv s="5">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>ac5bcc34-e1cd-2e76-9d31-fb1be1159a5e</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>20</v>
+    <v>21</v>
+    <v>Belgium</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Map</v>
+    <v>26</v>
+    <v>27</v>
+    <v>BE</v>
+    <v>1</v>
+    <v>2</v>
+    <v>3</v>
+    <v>4</v>
+    <v>5</v>
+    <v>6</v>
+    <v>7</v>
+    <v>8</v>
+    <v>9</v>
+    <v>EUR</v>
+    <v>Belgium, officially the Kingdom of Belgium, is a country in Northwestern Europe. The country is bordered by the Netherlands to the north, Germany to the east, Luxembourg to the southeast, France to the southwest, and the North Sea to the northwest. It covers an area of 30,528 km² and has a population of more than 11.5 million, making it the 22nd most densely populated country in the world and the 6th most densely populated country in Europe, with a density of 376/km². Belgium is part of an area known as the Low Countries, historically a somewhat larger region than the Benelux group of states, as it also included parts of northern France. The capital and largest city is Brussels; other major cities are Antwerp, Ghent, Charleroi, Liège, Bruges, Namur, and Leuven.</v>
+    <v>10</v>
+    <v>11</v>
+    <v>12</v>
+    <v>13</v>
+    <v>14</v>
+    <v>15</v>
+    <v>16</v>
+    <v>17</v>
+    <v>18</v>
+    <v>19</v>
+    <v>20</v>
+    <v>21</v>
+    <v>22</v>
+    <v>23</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Belgium</v>
+    <v>Brabançonne</v>
+    <v>26</v>
+    <v>Kingdom of Belgium</v>
+    <v>27</v>
+    <v>28</v>
+    <v>29</v>
+    <v>30</v>
+    <v>31</v>
+    <v>32</v>
+    <v>33</v>
+    <v>34</v>
+    <v>35</v>
+    <v>36</v>
+    <v>37</v>
+    <v>38</v>
+    <v>39</v>
+    <v>40</v>
+    <v>41</v>
+    <v>42</v>
+    <v>Belgium</v>
+    <v>43</v>
+    <v>mdp/vdpid/21</v>
+  </rv>
+  <rv s="2">
+    <v>0</v>
+    <v>26</v>
+    <v>36</v>
+    <v>3</v>
+    <v>0</v>
+    <v>Image of Belgium</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Netherlands</v>
+    <v>bf5c1a4b-df0b-09dc-dce0-e3fb0c898dd3</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>0.53309587414663095</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>41543</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>41000</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>9.6999999999999993</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>31</fb>
+    <v>31</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Amsterdam</v>
+    <v>0b840501-8599-9528-5b22-13589caf205a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>170779.524</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>115.907994941178</fb>
+    <v>32</v>
+  </rv>
+  <rv s="1">
+    <fb>2.6336991024959299E-2</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>6712.7747582450002</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>1.59</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>0.11178391395177099</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>93.461004609605595</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>1.68</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>909070395160.78296</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>1.0422962</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.84980450000000007</fb>
+    <v>28</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+    <v>26</v>
+    <v>46</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Netherlands</v>
+  </rv>
+  <rv s="1">
+    <fb>3.3</fb>
+    <v>33</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Willem-Alexander of the Netherlands (Monarch)</v>
+    <v>70912573-f10f-4d1d-a8f8-220566451e74</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Lodewijk Asscher (Deputy prime minister)</v>
+    <v>324e801f-0e41-9a51-a5de-56d762c34473</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Mark Rutte (Prime Minister)</v>
+    <v>673e1b90-ad19-15cc-dd94-53646495b541</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="4">
+    <v>3</v>
+  </rv>
+  <rv s="3">
+    <v>https://www.bing.com/search?q=netherlands&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>81.760975609756102</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>1100105440292.49</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>10.29</fb>
+    <v>34</v>
+  </rv>
+  <rv s="4">
+    <v>4</v>
+  </rv>
+  <rv s="1">
+    <fb>0.1225176999</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>3.6053999999999999</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>17590672</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.223</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.23300000000000001</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.376</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>3.5000000000000003E-2</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>8.8000000000000009E-2</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.13800000000000001</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.17499999999999999</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.63619998931884802</fb>
+    <v>28</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Limburg</v>
+    <v>ba5627ab-eb52-6b56-c39c-399bd1e23825</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>North Brabant</v>
+    <v>67287e9d-748b-ece4-4770-99ec69c94b1a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>North Holland</v>
+    <v>1cbd1d08-fab6-2da6-0edd-41aa626502c2</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Gelderland</v>
+    <v>47e59e29-1b92-c09c-0310-bba63a79744b</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Overijssel</v>
+    <v>c80fa63b-8b0d-7117-09f7-f3b063ba8e8c</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Groningen</v>
+    <v>d523b02d-2f28-981e-9282-8f6cddd23d80</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Friesland</v>
+    <v>d3c60b92-e27c-cc6a-6ef5-f0937e506af0</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Utrecht</v>
+    <v>555963f7-e818-0e35-b5c8-1a97c8e78ed7</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Zeeland</v>
+    <v>b07124fd-c9f8-1712-1bd3-030b62afdd3d</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Drenthe</v>
+    <v>598e815b-602f-15c5-256e-a36860ffc830</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>South Holland</v>
+    <v>a189b2b4-4c8d-e909-49ed-1b6f571a33c2</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Aruba</v>
+    <v>b892cccb-4a26-2969-8f82-2cd11e899fcf</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Curaçao</v>
+    <v>16684a44-60de-afc8-b3ba-ec91b81de9ed</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Sint Maarten</v>
+    <v>b7515c56-e3c3-059b-dfab-c3a8f056fa02</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Flevoland</v>
+    <v>994d48a1-a44d-0664-1089-99ddd4d7e63d</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="4">
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <fb>0.230359193787393</fb>
+    <v>28</v>
+  </rv>
+  <rv s="4">
+    <v>6</v>
+  </rv>
+  <rv s="1">
+    <fb>0.41200000000000003</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>3.1960000991821301E-2</fb>
+    <v>37</v>
+  </rv>
+  <rv s="1">
+    <fb>15924729</fb>
+    <v>29</v>
+  </rv>
+  <rv s="6">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>bf5c1a4b-df0b-09dc-dce0-e3fb0c898dd3</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>43</v>
+    <v>44</v>
+    <v>Netherlands</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Map</v>
+    <v>26</v>
+    <v>45</v>
+    <v>NL</v>
+    <v>47</v>
+    <v>48</v>
+    <v>49</v>
+    <v>50</v>
+    <v>51</v>
+    <v>52</v>
+    <v>53</v>
+    <v>54</v>
+    <v>55</v>
+    <v>The Netherlands, informally Holland, is a country located in northwestern Europe with overseas territories in the Caribbean. It is the largest of four constituent countries of the Kingdom of the Netherlands. The Netherlands consists of twelve provinces; it borders Germany to the east, and Belgium to the south, with a North Sea coastline to the north and west. It shares maritime borders with the United Kingdom, Germany and Belgium in the North Sea. The country's official language is Dutch, with West Frisian as a secondary official language in the province of Friesland. Dutch, English and Papiamento are official in the Caribbean territories.</v>
+    <v>56</v>
+    <v>57</v>
+    <v>58</v>
+    <v>59</v>
+    <v>60</v>
+    <v>61</v>
+    <v>62</v>
+    <v>63</v>
+    <v>64</v>
+    <v>65</v>
+    <v>52</v>
+    <v>69</v>
+    <v>70</v>
+    <v>71</v>
+    <v>72</v>
+    <v>24</v>
+    <v>73</v>
+    <v>Netherlands</v>
+    <v>Wilhelmus</v>
+    <v>74</v>
+    <v>Netherlands</v>
+    <v>75</v>
+    <v>76</v>
+    <v>77</v>
+    <v>78</v>
+    <v>79</v>
+    <v>80</v>
+    <v>81</v>
+    <v>82</v>
+    <v>83</v>
+    <v>84</v>
+    <v>85</v>
+    <v>101</v>
+    <v>102</v>
+    <v>103</v>
+    <v>104</v>
+    <v>105</v>
+    <v>Netherlands</v>
+    <v>106</v>
+    <v>mdp/vdpid/176</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+    <v>26</v>
+    <v>46</v>
+    <v>3</v>
+    <v>0</v>
+    <v>Image of Netherlands</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Luxembourg</v>
+    <v>18da5ef5-2f6b-6dda-3140-08391acd669a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>0.53711935914593001</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>2586.36</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>2000</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>352</fb>
+    <v>31</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Luxembourg</v>
+    <v>387ae05a-dd15-f01c-07b2-097158a060ba</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>8987.8169999999991</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>115.087815087815</fb>
+    <v>32</v>
+  </rv>
+  <rv s="1">
+    <fb>1.7433207565384301E-2</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>13914.6784488756</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>1.37</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>0.35679011089811602</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>80.562295207665002</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>1.19</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>71104919108.141098</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>1.0228595</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.19151769999999999</fb>
+    <v>28</v>
+  </rv>
+  <rv s="2">
+    <v>2</v>
+    <v>26</v>
+    <v>56</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Luxembourg</v>
+  </rv>
+  <rv s="1">
+    <fb>1.9</fb>
+    <v>33</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Henri, Grand Duke of Luxembourg (Monarch)</v>
+    <v>894c7fec-1e82-07fe-a006-b2af9628daf3</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Xavier Bettel (Prime Minister)</v>
+    <v>d991448c-bb7b-59d9-24b6-06461041bb47</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>François Bausch (Deputy prime minister)</v>
+    <v>53918a7c-5c39-c85e-fb69-6fafec9f2ef8</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="4">
+    <v>7</v>
+  </rv>
+  <rv s="3">
+    <v>https://www.bing.com/search?q=luxembourg&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>82.095121951219497</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>44233610000</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>13.05</fb>
+    <v>34</v>
+  </rv>
+  <rv s="4">
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>0.1064453761</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>3.0089999999999999</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>640064</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.25800000000000001</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.41399999999999998</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>2.4E-2</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>6.5000000000000002E-2</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.11900000000000001</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.16800000000000001</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.59326999664306601</fb>
+    <v>28</v>
+  </rv>
+  <rv s="4">
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <fb>0.26504268340465897</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.20399999999999999</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>5.3629999160766599E-2</fb>
+    <v>37</v>
+  </rv>
+  <rv s="1">
+    <fb>565488</fb>
+    <v>29</v>
+  </rv>
+  <rv s="7">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>18da5ef5-2f6b-6dda-3140-08391acd669a</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>53</v>
+    <v>54</v>
+    <v>Luxembourg</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Map</v>
+    <v>26</v>
+    <v>55</v>
+    <v>LU</v>
+    <v>110</v>
+    <v>111</v>
+    <v>112</v>
+    <v>4</v>
+    <v>113</v>
+    <v>114</v>
+    <v>115</v>
+    <v>116</v>
+    <v>117</v>
+    <v>EUR</v>
+    <v>Luxembourg, officially the Grand Duchy of Luxembourg, is a small landlocked country in Western Europe. It borders Belgium to the west and north, Germany to the east, and France to the south. Its capital and most populous city, Luxembourg, is one of the four institutional seats of the European Union and the seat of several EU institutions, notably the Court of Justice of the European Union, the highest judicial authority. Luxembourg's culture, people, and languages are highly intertwined with its French and German neighbors; while Luxembourgish is the only national language of the Luxembourgish people and of the Grand Duchy of Luxembourg, French is the only language for legislation, and all three – Luxembourgish, French and German – are used for administrative matters in the country.</v>
+    <v>118</v>
+    <v>119</v>
+    <v>120</v>
+    <v>121</v>
+    <v>122</v>
+    <v>123</v>
+    <v>124</v>
+    <v>125</v>
+    <v>126</v>
+    <v>127</v>
+    <v>114</v>
+    <v>131</v>
+    <v>132</v>
+    <v>133</v>
+    <v>134</v>
+    <v>24</v>
+    <v>135</v>
+    <v>Luxembourg</v>
+    <v>Ons Heemecht</v>
+    <v>136</v>
+    <v>Grand Duchy of Luxembourg</v>
+    <v>137</v>
+    <v>138</v>
+    <v>139</v>
+    <v>79</v>
+    <v>140</v>
+    <v>141</v>
+    <v>142</v>
+    <v>143</v>
+    <v>144</v>
+    <v>145</v>
+    <v>146</v>
+    <v>147</v>
+    <v>148</v>
+    <v>40</v>
+    <v>149</v>
+    <v>150</v>
+    <v>Luxembourg</v>
+    <v>151</v>
+    <v>mdp/vdpid/147</v>
+  </rv>
+  <rv s="2">
+    <v>2</v>
+    <v>26</v>
+    <v>56</v>
+    <v>3</v>
+    <v>0</v>
+    <v>Image of Luxembourg</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>United States</v>
+    <v>5232ed96-85b1-2edb-12c6-63e6c597a1de</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>0.44369067999501505</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>9826675</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>1359000</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>11.6</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>1</fb>
+    <v>31</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Washington, D.C.</v>
+    <v>216726d1-8987-06d3-5eff-823da05c3d3c</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>5006302.0769999996</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>117.244195476228</fb>
+    <v>32</v>
+  </rv>
+  <rv s="1">
+    <fb>7.4999999999999997E-2</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>12993.961824772699</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>1.7295</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>0.339297856663409</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>82.427828245269197</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>0.71</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>21427700000000</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>1.0182144</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.88167390000000001</fb>
+    <v>28</v>
+  </rv>
+  <rv s="2">
+    <v>3</v>
+    <v>26</v>
+    <v>66</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of United States</v>
+  </rv>
+  <rv s="1">
+    <fb>5.6</fb>
+    <v>33</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>New York</v>
+    <v>60d5dc2b-c915-460b-b722-c9e3485499ca</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Joe Biden (President)</v>
+    <v>cad484f9-be75-7a78-12dd-16233f823cd7</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Kamala Harris (Vice President)</v>
+    <v>ef5cf66f-32b7-7271-286a-8e8313eda5c5</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="4">
+    <v>10</v>
+  </rv>
+  <rv s="3">
+    <v>https://www.bing.com/search?q=united+states&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>78.539024390243895</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>30436313050000</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>19</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>7.25</fb>
+    <v>34</v>
+  </rv>
+  <rv s="4">
+    <v>11</v>
+  </rv>
+  <rv s="1">
+    <fb>0.1108387988</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>2.6120000000000001</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>331893745</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.22600000000000001</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.30499999999999999</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.46799999999999997</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>1.7000000000000001E-2</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>5.0999999999999997E-2</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.10300000000000001</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.153</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.62048999786377002</fb>
+    <v>28</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>New York</v>
+    <v>caeb7b9a-f5d7-4686-8fb5-cf7628296b13</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Washington</v>
+    <v>e8a0d824-4c94-2f90-256a-a6adfa28f789</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>California</v>
+    <v>3009d91d-d582-4c34-85ba-772ba09e5be1</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Washington</v>
+    <v>982ad551-fd5d-45df-bd70-bf704dd576e4</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>New Jersey</v>
+    <v>05277898-b62b-4878-8632-09d29756a2ff</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Minnesota</v>
+    <v>77f97f6f-7e93-46e5-b486-6198effe8dea</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Massachusetts</v>
+    <v>845219d5-3650-4199-b926-964ca27c863c</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Missouri</v>
+    <v>6185f8cb-44e1-4da6-9bf0-b75286aeb591</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>South Carolina</v>
+    <v>810015e8-b10b-4232-9e2c-de87a67bd26e</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Nevada</v>
+    <v>c2157d7e-617e-4517-80f8-1b08113afc14</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Texas</v>
+    <v>00a23ccd-3344-461c-8b9f-c2bb55be5815</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Maryland</v>
+    <v>4c472f4d-06a8-4d90-8bb8-da4d168c73fe</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>North Carolina</v>
+    <v>9e2bf053-dd80-4646-8f26-65075e7085c0</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>West Virginia</v>
+    <v>8a47255a-fae3-4faa-aa32-c6f384cb6c1d</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Ohio</v>
+    <v>6f3df7da-1ef6-48e3-b2b3-b5b5fce3e846</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Virginia</v>
+    <v>7eee9976-e8a7-472c-ada1-007208abd678</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Michigan</v>
+    <v>162411c2-b757-495d-aa81-93942fae2f7e</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Pennsylvania</v>
+    <v>6304580e-c803-4266-818a-971619176547</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Alaska</v>
+    <v>31c4c7a1-54e7-4306-ac9b-f1b02e85bda5</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Iowa</v>
+    <v>77850824-b07a-487a-af58-37f9949afc27</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Wyoming</v>
+    <v>bff03ad6-2b7f-400b-a76e-eb9fc4a93961</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Hawaii</v>
+    <v>b6f01eaf-aecf-44f6-b64d-1f6e982365c3</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Oregon</v>
+    <v>cacd36fd-7c62-43e2-a632-64a2a1811933</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>North Dakota</v>
+    <v>77fbc744-3efe-4aa9-9e8e-f8034f06b941</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Oklahoma</v>
+    <v>cbcf556f-952a-4665-bb95-0500b27f9976</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Montana</v>
+    <v>447d6cd5-53f6-4c8f-bf6c-9ff228415c3b</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kentucky</v>
+    <v>108dfd18-4626-481a-8dfa-18f64e6eac84</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Illinois</v>
+    <v>4131acb8-628a-4241-8920-ca79eab9dade</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Louisiana</v>
+    <v>0ca1e87f-e2f6-43fb-8deb-d22bd09a9cae</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Connecticut</v>
+    <v>b3ca6523-435e-4a3b-8f78-1ad900a52cf8</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Arizona</v>
+    <v>bf973f46-5962-4997-a7ba-a05f1aa2a9f9</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Florida</v>
+    <v>5fece3f4-e8e8-4159-843e-f725a930ad50</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Nebraska</v>
+    <v>3e64ff5d-6b40-4dbe-91b1-0e554e892496</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Indiana</v>
+    <v>109f7e5a-efbb-4953-b4b8-cb812ce1ff5d</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Wisconsin</v>
+    <v>cb4d2853-06f4-4467-8e7c-4e31cbb35cb2</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Tennessee</v>
+    <v>9bbc9c72-1bf1-4ef6-b66d-a6cdef70f4f3</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>South Dakota</v>
+    <v>9cee0b65-d357-479e-a066-31c634648f47</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>New Mexico</v>
+    <v>a16d3636-4349-41c7-a77e-89e34b26a8ad</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>New Hampshire</v>
+    <v>9ca71997-cc97-46eb-8911-fac32f80b0b1</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kansas</v>
+    <v>6e527b71-bd3e-4bc1-b1c0-59d288b4fd5e</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Maine</v>
+    <v>d62dd683-9cf9-4db9-a497-d810d529592b</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Vermont</v>
+    <v>221864cc-447e-4e78-847c-59e485d73bff</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Georgia</v>
+    <v>84604bc7-2c47-4f8d-8ea5-b6ac8c018a20</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Mississippi</v>
+    <v>6af619ca-217d-49c0-9a86-153fc7fbcd78</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Alabama</v>
+    <v>376f8b06-52f6-4e72-a31d-311a3563e645</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Rhode Island</v>
+    <v>65a08f52-b469-4f7c-8353-9b3c0b2a5752</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Idaho</v>
+    <v>ecd30387-20fa-4523-9045-e2860154b5e9</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Utah</v>
+    <v>c6705e44-d27f-4240-95a2-54e802e3b524</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Arkansas</v>
+    <v>b939db72-08f2-4ea6-a16a-a53bf32e6612</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Colorado</v>
+    <v>a070c5c2-b22d-41d8-b869-f20e583c4f80</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Delaware</v>
+    <v>8ad617cc-3d7a-4b3c-a787-098de959ccc4</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Puerto Rico</v>
+    <v>72752f4d-11d3-5470-b64e-b9e012b0520f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>American Samoa</v>
+    <v>12d04d63-b9b5-855b-0821-b32474a729a4</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>United States Virgin Islands</v>
+    <v>38bd827b-bc00-140e-85be-46a96078429c</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Northern Mariana Islands</v>
+    <v>f4475436-adda-9ff0-b5fe-6c3dff0e26be</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Guam</v>
+    <v>f842c067-b461-3084-6a3b-6c6c7431fc9a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>United States Minor Outlying Islands</v>
+    <v>0a148d8f-0026-1089-40fb-cf776177ba31</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="4">
+    <v>12</v>
+  </rv>
+  <rv s="1">
+    <fb>9.5866513904898809E-2</fb>
+    <v>28</v>
+  </rv>
+  <rv s="4">
+    <v>13</v>
+  </rv>
+  <rv s="1">
+    <fb>0.36599999999999999</fb>
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.14699999999999999</fb>
+    <v>37</v>
+  </rv>
+  <rv s="1">
+    <fb>270663028</fb>
+    <v>29</v>
+  </rv>
+  <rv s="7">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>5232ed96-85b1-2edb-12c6-63e6c597a1de</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>64</v>
+    <v>54</v>
+    <v>United States</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Map</v>
+    <v>26</v>
+    <v>65</v>
+    <v>US</v>
+    <v>155</v>
+    <v>156</v>
+    <v>157</v>
+    <v>158</v>
+    <v>159</v>
+    <v>160</v>
+    <v>161</v>
+    <v>162</v>
+    <v>163</v>
+    <v>USD</v>
+    <v>The United States of America, commonly known as the United States or America, is a country primarily located in North America consisting of 50 states, a federal district, five major unincorporated territories, nine Minor Outlying Islands, and 326 Indian reservations. It is the world's third-largest country by both land and total area. It shares land borders with Canada to its north and with Mexico to its south and has maritime borders with the Bahamas, Cuba, Russia, and other nations. With a population of over 333 million, it is the most populous country in the Americas and the third-most populous in the world. The national capital of the United States is Washington, D.C., and its most populous city and principal financial center is New York City.</v>
+    <v>164</v>
+    <v>165</v>
+    <v>166</v>
+    <v>167</v>
+    <v>168</v>
+    <v>169</v>
+    <v>170</v>
+    <v>171</v>
+    <v>172</v>
+    <v>173</v>
+    <v>174</v>
+    <v>177</v>
+    <v>178</v>
+    <v>179</v>
+    <v>180</v>
+    <v>181</v>
+    <v>182</v>
+    <v>United States</v>
+    <v>The Star-Spangled Banner</v>
+    <v>183</v>
+    <v>United States of America</v>
+    <v>184</v>
+    <v>185</v>
+    <v>186</v>
+    <v>187</v>
+    <v>188</v>
+    <v>189</v>
+    <v>190</v>
+    <v>191</v>
+    <v>192</v>
+    <v>193</v>
+    <v>194</v>
+    <v>252</v>
+    <v>253</v>
+    <v>254</v>
+    <v>255</v>
+    <v>256</v>
+    <v>United States</v>
+    <v>257</v>
+    <v>mdp/vdpid/244</v>
+  </rv>
+  <rv s="2">
+    <v>3</v>
+    <v>26</v>
+    <v>66</v>
+    <v>3</v>
+    <v>0</v>
+    <v>Image of United States</v>
+  </rv>
+  <rv s="3">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1mou2&amp;q=XNAS%3aAAPL&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="8">
+    <v>en-US</v>
+    <v>a1mou2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>67</v>
+    <v>APPLE INC. (XNAS:AAPL)</v>
+    <v>68</v>
+    <v>69</v>
+    <v>Finance</v>
+    <v>70</v>
+    <v>198.23</v>
+    <v>124.17</v>
+    <v>1.2868999999999999</v>
+    <v>2.61</v>
+    <v>6.1280000000000004E-4</v>
+    <v>1.3507999999999999E-2</v>
+    <v>0.12</v>
+    <v>USD</v>
+    <v>Apple Inc. (Apple) designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories and sells a range of related services. The Company’s products include iPhone, Mac, iPad, AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and accessories. The Company operates various platforms, including the App Store, which allows customers to discover and download applications and digital content, such as books, music, video, games and podcasts. Apple offers digital content through subscription-based services, including Apple Arcade, Apple Music, Apple News+, Apple TV+ and Apple Fitness+. Apple also offers a range of other services, such as AppleCare, iCloud, Apple Card and Apple Pay. Apple sells its products and resells third-party products in a range of markets, including directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its retail and online stores and its direct sales force.</v>
+    <v>164000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
+    <v>196.626</v>
+    <v>Computers, Phones &amp; Household Electronics</v>
+    <v>Stock</v>
+    <v>45135.999943517971</v>
+    <v>260</v>
+    <v>194.14</v>
+    <v>3080152000000</v>
+    <v>APPLE INC.</v>
+    <v>APPLE INC.</v>
+    <v>194.67</v>
+    <v>32.766800000000003</v>
+    <v>193.22</v>
+    <v>195.83</v>
+    <v>195.95</v>
+    <v>15728700000</v>
+    <v>AAPL</v>
+    <v>APPLE INC. (XNAS:AAPL)</v>
+    <v>48291443</v>
+    <v>51808488</v>
+    <v>1977</v>
+  </rv>
+  <rv s="9">
+    <v>261</v>
+  </rv>
+  <rv s="3">
+    <v>http://en.wikipedia.org/wiki/Public_domain</v>
+    <v>Public domain</v>
+  </rv>
+  <rv s="3">
+    <v>http://en.wikipedia.org/wiki/Ford_Motor_Company</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="10">
+    <v>263</v>
+    <v>264</v>
+  </rv>
+  <rv s="11">
+    <v>74</v>
+    <v>https://www.bing.com/th?id=AMMS_cf0311a5f2d2dcb3110aca1404330618&amp;qlt=95</v>
+    <v>265</v>
+    <v>0</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=ford+motor+company</v>
+    <v>Image of FORD MOTOR COMPANY</v>
+  </rv>
+  <rv s="3">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1sjw7&amp;q=XNYS%3aF&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="12">
+    <v>en-US</v>
+    <v>a1sjw7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>71</v>
+    <v>FORD MOTOR COMPANY (XNYS:F)</v>
+    <v>72</v>
+    <v>73</v>
+    <v>Finance</v>
+    <v>70</v>
+    <v>15.876300000000001</v>
+    <v>10.3748</v>
+    <v>1.5996999999999999</v>
+    <v>-0.47</v>
+    <v>-7.5410000000000006E-4</v>
+    <v>-3.4231999999999999E-2</v>
+    <v>-0.01</v>
+    <v>USD</v>
+    <v>Ford Motor Company is an automobile company. The Company designs, manufactures, markets, and services a full line of electrified passenger and commercial vehicles, such as Ford trucks, utility vehicles, vans, and cars, and Lincoln luxury vehicles. The Company's segments include Ford Blue, Ford Model e, Ford Pro, Ford Next and Ford Credit. Its Ford Blue segment is engaged in developing gas-powered and hybrid vehicles. Its Ford Model e segment is engaged in developing electronic vehicles (EVs) along with embedded software that defines always-on digital experiences for all customers. Its Ford Pro segment is engaged in helping commercial customers transform and expand their businesses with vehicles and services tailored to their needs. Ford Next segment is engaged in pursuing mobility solutions and provides financial services through Ford Motor Credit Company. The Ford Credit segment is primarily engaged in providing vehicle-related financing and leasing activities.</v>
+    <v>173000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>One American Road, DEARBORN, MI, 48126-2701 US</v>
+    <v>13.65</v>
+    <v>266</v>
+    <v>Automobiles &amp; Auto Parts</v>
+    <v>Stock</v>
+    <v>45135.999947800781</v>
+    <v>267</v>
+    <v>13.015000000000001</v>
+    <v>53050210000</v>
+    <v>FORD MOTOR COMPANY</v>
+    <v>FORD MOTOR COMPANY</v>
+    <v>13.58</v>
+    <v>13.322699999999999</v>
+    <v>13.73</v>
+    <v>13.26</v>
+    <v>13.25</v>
+    <v>4000770000</v>
+    <v>F</v>
+    <v>FORD MOTOR COMPANY (XNYS:F)</v>
+    <v>116696546</v>
+    <v>54011577</v>
+    <v>1919</v>
+  </rv>
+  <rv s="9">
+    <v>268</v>
+  </rv>
+  <rv s="3">
+    <v>http://en.wikipedia.org/wiki/The_Walt_Disney_Company</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="10">
+    <v>263</v>
+    <v>270</v>
+  </rv>
+  <rv s="11">
+    <v>74</v>
+    <v>https://www.bing.com/th?id=AMMS_0aa288ba528f6f45e3de87d97e250136&amp;qlt=95</v>
+    <v>271</v>
+    <v>0</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=the+walt+disney+company</v>
+    <v>Image of THE WALT DISNEY COMPANY</v>
+  </rv>
+  <rv s="3">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1r2z2&amp;q=XNYS%3aDIS&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="12">
+    <v>en-US</v>
+    <v>a1r2z2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>71</v>
+    <v>THE WALT DISNEY COMPANY (XNYS:DIS)</v>
+    <v>72</v>
+    <v>73</v>
+    <v>Finance</v>
+    <v>70</v>
+    <v>126.48</v>
+    <v>84.07</v>
+    <v>1.2726999999999999</v>
+    <v>0.77</v>
+    <v>1.9740000000000001E-3</v>
+    <v>9.0209999999999995E-3</v>
+    <v>0.17</v>
+    <v>USD</v>
+    <v>The Walt Disney Company is a worldwide entertainment company. The Company’s segments include Disney Media and Entertainment Distribution (DMED), and Disney Parks, Experiences and Products (DPEP). The DMED segment encompasses the Company’s global film and episodic television content production and distribution activities. The Company’s DMED’s lines of business consists of Linear Networks, Direct-to-Consumer and Content Sales/Licensing. The Company’s DPEP segment business consists of sale of admissions to theme parks, the sale of food, beverage and merchandise at its theme parks and resorts, sales of cruise vacations, sales and rentals of vacation club properties, royalties from licensing its intellectual properties (IP) for use on consumer goods and the sale of branded merchandise. The Company's Content Sales/Licensing business consist of selling film and episodic television content in the television and subscription video-on-demand (TV/SVOD) and home entertainment markets.</v>
+    <v>220000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>500 S Buena Vista St, BURBANK, CA, 91521-0001 US</v>
+    <v>86.58</v>
+    <v>272</v>
+    <v>Media &amp; Publishing</v>
+    <v>Stock</v>
+    <v>45135.999978125001</v>
+    <v>273</v>
+    <v>85.444999999999993</v>
+    <v>157385800000</v>
+    <v>THE WALT DISNEY COMPANY</v>
+    <v>THE WALT DISNEY COMPANY</v>
+    <v>85.86</v>
+    <v>37.854799999999997</v>
+    <v>85.36</v>
+    <v>86.13</v>
+    <v>86.3</v>
+    <v>1827305000</v>
+    <v>DIS</v>
+    <v>THE WALT DISNEY COMPANY (XNYS:DIS)</v>
+    <v>13638332</v>
+    <v>14875265</v>
+    <v>2018</v>
+  </rv>
+  <rv s="9">
+    <v>274</v>
+  </rv>
+  <rv s="3">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a22k9c&amp;q=XNAS%3aSBUX&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="8">
+    <v>en-US</v>
+    <v>a22k9c</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>67</v>
+    <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
+    <v>68</v>
+    <v>69</v>
+    <v>Finance</v>
+    <v>70</v>
+    <v>115.48</v>
+    <v>81.67</v>
+    <v>0.92679999999999996</v>
+    <v>0.47</v>
+    <v>1.4810000000000001E-3</v>
+    <v>4.6639999999999997E-3</v>
+    <v>0.15</v>
+    <v>USD</v>
+    <v>Starbucks Corp is a roaster, marketer, and retailer of specialty coffee with operations in approximately 83 markets. It has over 35,000 Company-operated and licensed stores. It operates through three segments: North America, which includes the United States and Canada; International, which includes China, Japan, Asia Pacific, Europe, Middle East, Africa, Latin America and the Caribbean; and Channel Development. Its North America and International segments include both Company-operated and licensed stores. Channel Development segment includes roasted whole bean and ground coffees, Seattle's Best Coffee, Starbucks and Teavana-branded single-serve products, a variety of ready-to-drink beverages, such as Frappuccino and Starbucks Doubleshot, foodservice products and other branded products sold worldwide outside of its Company-operated and licensed stores. It also sells goods and services under various brands, including Teavana, Seattle's Best Coffee, Ethos, Starbucks Reserve and Princi.</v>
+    <v>402000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>P O Box 34067, SEATTLE, WA, 98124-1067 US</v>
+    <v>101.83</v>
+    <v>Hotels &amp; Entertainment Services</v>
+    <v>Stock</v>
+    <v>45135.99981332109</v>
+    <v>276</v>
+    <v>100.81</v>
+    <v>116073000000</v>
+    <v>STARBUCKS CORPORATION</v>
+    <v>STARBUCKS CORPORATION</v>
+    <v>101.5</v>
+    <v>32.667999999999999</v>
+    <v>100.78</v>
+    <v>101.25</v>
+    <v>101.4</v>
+    <v>1146400000</v>
+    <v>SBUX</v>
+    <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
+    <v>5321408</v>
+    <v>6942459</v>
+    <v>1985</v>
+  </rv>
+  <rv s="9">
+    <v>277</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
+  <s t="_linkedentity2">
+    <k n="%EntityServiceId" t="i"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="_Icon" t="s"/>
+  </s>
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_webimage">
+    <k n="WebImageIdentifier" t="i"/>
+    <k n="_Provider" t="spb"/>
+    <k n="Attribution" t="spb"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="ComputedImage" t="b"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Abbreviation" t="s"/>
+    <k n="Agricultural land (%)" t="r"/>
+    <k n="Area" t="r"/>
+    <k n="Armed forces size" t="r"/>
+    <k n="Birth rate" t="r"/>
+    <k n="Calling code" t="r"/>
+    <k n="Capital/Major City" t="r"/>
+    <k n="Carbon dioxide emissions" t="r"/>
+    <k n="CPI" t="r"/>
+    <k n="CPI Change (%)" t="r"/>
+    <k n="Currency code" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Electric power consumption" t="r"/>
+    <k n="Fertility rate" t="r"/>
+    <k n="Forested area (%)" t="r"/>
+    <k n="Fossil fuel energy consumption" t="r"/>
+    <k n="Gasoline price" t="r"/>
+    <k n="GDP" t="r"/>
+    <k n="Gross primary education enrollment (%)" t="r"/>
+    <k n="Gross tertiary education enrollment (%)" t="r"/>
+    <k n="Image" t="r"/>
+    <k n="Infant mortality" t="r"/>
+    <k n="Largest city" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Life expectancy" t="r"/>
+    <k n="Market cap of listed companies" t="r"/>
+    <k n="Maternal mortality ratio" t="r"/>
+    <k n="Minimum wage" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="National anthem" t="s"/>
+    <k n="Official language" t="r"/>
+    <k n="Official name" t="s"/>
+    <k n="Out of pocket health expenditure (%)" t="r"/>
+    <k n="Physicians per thousand" t="r"/>
+    <k n="Population" t="r"/>
+    <k n="Population: Income share fourth 20%" t="r"/>
+    <k n="Population: Income share highest 10%" t="r"/>
+    <k n="Population: Income share highest 20%" t="r"/>
+    <k n="Population: Income share lowest 10%" t="r"/>
+    <k n="Population: Income share lowest 20%" t="r"/>
+    <k n="Population: Income share second 20%" t="r"/>
+    <k n="Population: Income share third 20%" t="r"/>
+    <k n="Population: Labor force participation (%)" t="r"/>
+    <k n="Subdivisions" t="r"/>
+    <k n="Tax revenue (%)" t="r"/>
+    <k n="Time zone(s)" t="r"/>
+    <k n="Total tax rate" t="r"/>
+    <k n="Unemployment rate" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Urban population" t="r"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Abbreviation" t="s"/>
+    <k n="Agricultural land (%)" t="r"/>
+    <k n="Area" t="r"/>
+    <k n="Armed forces size" t="r"/>
+    <k n="Birth rate" t="r"/>
+    <k n="Calling code" t="r"/>
+    <k n="Capital/Major City" t="r"/>
+    <k n="Carbon dioxide emissions" t="r"/>
+    <k n="CPI" t="r"/>
+    <k n="CPI Change (%)" t="r"/>
+    <k n="Description" t="s"/>
+    <k n="Electric power consumption" t="r"/>
+    <k n="Fertility rate" t="r"/>
+    <k n="Forested area (%)" t="r"/>
+    <k n="Fossil fuel energy consumption" t="r"/>
+    <k n="Gasoline price" t="r"/>
+    <k n="GDP" t="r"/>
+    <k n="Gross primary education enrollment (%)" t="r"/>
+    <k n="Gross tertiary education enrollment (%)" t="r"/>
+    <k n="Image" t="r"/>
+    <k n="Infant mortality" t="r"/>
+    <k n="Largest city" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Life expectancy" t="r"/>
+    <k n="Market cap of listed companies" t="r"/>
+    <k n="Maternal mortality ratio" t="r"/>
+    <k n="Minimum wage" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="National anthem" t="s"/>
+    <k n="Official language" t="r"/>
+    <k n="Official name" t="s"/>
+    <k n="Out of pocket health expenditure (%)" t="r"/>
+    <k n="Physicians per thousand" t="r"/>
+    <k n="Population" t="r"/>
+    <k n="Population: Income share fourth 20%" t="r"/>
+    <k n="Population: Income share highest 10%" t="r"/>
+    <k n="Population: Income share highest 20%" t="r"/>
+    <k n="Population: Income share lowest 10%" t="r"/>
+    <k n="Population: Income share lowest 20%" t="r"/>
+    <k n="Population: Income share second 20%" t="r"/>
+    <k n="Population: Income share third 20%" t="r"/>
+    <k n="Population: Labor force participation (%)" t="r"/>
+    <k n="Subdivisions" t="r"/>
+    <k n="Tax revenue (%)" t="r"/>
+    <k n="Time zone(s)" t="r"/>
+    <k n="Total tax rate" t="r"/>
+    <k n="Unemployment rate" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Urban population" t="r"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Abbreviation" t="s"/>
+    <k n="Agricultural land (%)" t="r"/>
+    <k n="Area" t="r"/>
+    <k n="Armed forces size" t="r"/>
+    <k n="Birth rate" t="r"/>
+    <k n="Calling code" t="r"/>
+    <k n="Capital/Major City" t="r"/>
+    <k n="Carbon dioxide emissions" t="r"/>
+    <k n="CPI" t="r"/>
+    <k n="CPI Change (%)" t="r"/>
+    <k n="Currency code" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Electric power consumption" t="r"/>
+    <k n="Fertility rate" t="r"/>
+    <k n="Forested area (%)" t="r"/>
+    <k n="Fossil fuel energy consumption" t="r"/>
+    <k n="Gasoline price" t="r"/>
+    <k n="GDP" t="r"/>
+    <k n="Gross primary education enrollment (%)" t="r"/>
+    <k n="Gross tertiary education enrollment (%)" t="r"/>
+    <k n="Image" t="r"/>
+    <k n="Infant mortality" t="r"/>
+    <k n="Largest city" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Life expectancy" t="r"/>
+    <k n="Market cap of listed companies" t="r"/>
+    <k n="Maternal mortality ratio" t="r"/>
+    <k n="Minimum wage" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="National anthem" t="s"/>
+    <k n="Official language" t="r"/>
+    <k n="Official name" t="s"/>
+    <k n="Out of pocket health expenditure (%)" t="r"/>
+    <k n="Physicians per thousand" t="r"/>
+    <k n="Population" t="r"/>
+    <k n="Population: Income share fourth 20%" t="r"/>
+    <k n="Population: Income share highest 10%" t="r"/>
+    <k n="Population: Income share highest 20%" t="r"/>
+    <k n="Population: Income share lowest 10%" t="r"/>
+    <k n="Population: Income share lowest 20%" t="r"/>
+    <k n="Population: Income share second 20%" t="r"/>
+    <k n="Population: Income share third 20%" t="r"/>
+    <k n="Population: Labor force participation (%)" t="r"/>
+    <k n="Subdivisions" t="r"/>
+    <k n="Tax revenue (%)" t="r"/>
+    <k n="Time zone(s)" t="r"/>
+    <k n="Total tax rate" t="r"/>
+    <k n="Unemployment rate" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Urban population" t="r"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+  <s t="_sourceattribution">
+    <k n="License" t="r"/>
+    <k n="Source" t="r"/>
+  </s>
+  <s t="_imageurl">
+    <k n="_Provider" t="spb"/>
+    <k n="Address" t="s"/>
+    <k n="Attribution" t="r"/>
+    <k n="ComputedImage" t="b"/>
+    <k n="More Images Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Image" t="r"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="5">
+    <a count="63">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Capital/Major City</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Abbreviation</v>
+      <v t="s">GDP</v>
+      <v t="s">Currency code</v>
+      <v t="s">Largest city</v>
+      <v t="s">National anthem</v>
+      <v t="s">Official language</v>
+      <v t="s">Official name</v>
+      <v t="s">Subdivisions</v>
+      <v t="s">Life expectancy</v>
+      <v t="s">Birth rate</v>
+      <v t="s">Fertility rate</v>
+      <v t="s">Infant mortality</v>
+      <v t="s">Maternal mortality ratio</v>
+      <v t="s">Urban population</v>
+      <v t="s">Agricultural land (%)</v>
+      <v t="s">Forested area (%)</v>
+      <v t="s">Carbon dioxide emissions</v>
+      <v t="s">Fossil fuel energy consumption</v>
+      <v t="s">Gasoline price</v>
+      <v t="s">Electric power consumption</v>
+      <v t="s">CPI</v>
+      <v t="s">CPI Change (%)</v>
+      <v t="s">Population: Income share highest 10%</v>
+      <v t="s">Population: Income share highest 20%</v>
+      <v t="s">Population: Income share second 20%</v>
+      <v t="s">Population: Income share third 20%</v>
+      <v t="s">Population: Income share fourth 20%</v>
+      <v t="s">Population: Income share lowest 20%</v>
+      <v t="s">Population: Income share lowest 10%</v>
+      <v t="s">Population: Labor force participation (%)</v>
+      <v t="s">Minimum wage</v>
+      <v t="s">Tax revenue (%)</v>
+      <v t="s">Total tax rate</v>
+      <v t="s">Unemployment rate</v>
+      <v t="s">Market cap of listed companies</v>
+      <v t="s">Gross primary education enrollment (%)</v>
+      <v t="s">Gross tertiary education enrollment (%)</v>
+      <v t="s">Out of pocket health expenditure (%)</v>
+      <v t="s">Physicians per thousand</v>
+      <v t="s">Armed forces size</v>
+      <v t="s">Time zone(s)</v>
+      <v t="s">Calling code</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="63">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Capital/Major City</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Abbreviation</v>
+      <v t="s">GDP</v>
+      <v t="s">Largest city</v>
+      <v t="s">National anthem</v>
+      <v t="s">Official language</v>
+      <v t="s">Official name</v>
+      <v t="s">Subdivisions</v>
+      <v t="s">Life expectancy</v>
+      <v t="s">Birth rate</v>
+      <v t="s">Fertility rate</v>
+      <v t="s">Infant mortality</v>
+      <v t="s">Maternal mortality ratio</v>
+      <v t="s">Urban population</v>
+      <v t="s">Agricultural land (%)</v>
+      <v t="s">Forested area (%)</v>
+      <v t="s">Carbon dioxide emissions</v>
+      <v t="s">Fossil fuel energy consumption</v>
+      <v t="s">Gasoline price</v>
+      <v t="s">Electric power consumption</v>
+      <v t="s">CPI</v>
+      <v t="s">CPI Change (%)</v>
+      <v t="s">Population: Income share highest 10%</v>
+      <v t="s">Population: Income share highest 20%</v>
+      <v t="s">Population: Income share second 20%</v>
+      <v t="s">Population: Income share third 20%</v>
+      <v t="s">Population: Income share fourth 20%</v>
+      <v t="s">Population: Income share lowest 20%</v>
+      <v t="s">Population: Income share lowest 10%</v>
+      <v t="s">Population: Labor force participation (%)</v>
+      <v t="s">Minimum wage</v>
+      <v t="s">Tax revenue (%)</v>
+      <v t="s">Total tax rate</v>
+      <v t="s">Unemployment rate</v>
+      <v t="s">Market cap of listed companies</v>
+      <v t="s">Gross primary education enrollment (%)</v>
+      <v t="s">Gross tertiary education enrollment (%)</v>
+      <v t="s">Out of pocket health expenditure (%)</v>
+      <v t="s">Physicians per thousand</v>
+      <v t="s">Armed forces size</v>
+      <v t="s">Time zone(s)</v>
+      <v t="s">Calling code</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="64">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Capital/Major City</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Abbreviation</v>
+      <v t="s">GDP</v>
+      <v t="s">Currency code</v>
+      <v t="s">Largest city</v>
+      <v t="s">National anthem</v>
+      <v t="s">Official language</v>
+      <v t="s">Official name</v>
+      <v t="s">Subdivisions</v>
+      <v t="s">Life expectancy</v>
+      <v t="s">Birth rate</v>
+      <v t="s">Fertility rate</v>
+      <v t="s">Infant mortality</v>
+      <v t="s">Maternal mortality ratio</v>
+      <v t="s">Urban population</v>
+      <v t="s">Agricultural land (%)</v>
+      <v t="s">Forested area (%)</v>
+      <v t="s">Carbon dioxide emissions</v>
+      <v t="s">Fossil fuel energy consumption</v>
+      <v t="s">Gasoline price</v>
+      <v t="s">Electric power consumption</v>
+      <v t="s">CPI</v>
+      <v t="s">CPI Change (%)</v>
+      <v t="s">Population: Income share highest 10%</v>
+      <v t="s">Population: Income share highest 20%</v>
+      <v t="s">Population: Income share second 20%</v>
+      <v t="s">Population: Income share third 20%</v>
+      <v t="s">Population: Income share fourth 20%</v>
+      <v t="s">Population: Income share lowest 20%</v>
+      <v t="s">Population: Income share lowest 10%</v>
+      <v t="s">Population: Labor force participation (%)</v>
+      <v t="s">Minimum wage</v>
+      <v t="s">Tax revenue (%)</v>
+      <v t="s">Total tax rate</v>
+      <v t="s">Unemployment rate</v>
+      <v t="s">Market cap of listed companies</v>
+      <v t="s">Gross primary education enrollment (%)</v>
+      <v t="s">Gross tertiary education enrollment (%)</v>
+      <v t="s">Out of pocket health expenditure (%)</v>
+      <v t="s">Physicians per thousand</v>
+      <v t="s">Armed forces size</v>
+      <v t="s">Time zone(s)</v>
+      <v t="s">Calling code</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+    <a count="46">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="75">
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/FP.CPI.TOTL	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Cia	travel.state.gov	</v>
+      <v xml:space="preserve">CC-BY-SA			</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Belgium	https://www.cia.gov/library/publications/the-world-factbook/geos/be.html?Transportation	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/Belgium.html	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/			</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://en.wikipedia.org	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SP.DYN.CBRT.IN	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Belgium	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Cia	</v>
+      <v xml:space="preserve">CC-BY-SA		</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Belgium	https://www.cia.gov/library/publications/the-world-factbook/geos/be.html?Transportation	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/		</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">travel.state.gov	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/Belgium.html	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Cia	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://www.cia.gov/library/publications/the-world-factbook/geos/be.html?Transportation	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SP.DYN.TFRT.IN	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SP.DYN.LE00.IN	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Belgium	http://vi.wikipedia.org/wiki/Bí	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SP.DYN.IMRT.IN	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SP.URB.TOTL	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/MS.MIL.TOTL.P1	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Belgium	http://fr.wikipedia.org/wiki/Belgique	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SH.MED.PHYS.ZS	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/EN.ATM.CO2E.KT	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SH.STA.MMRT	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/EG.USE.ELEC.KH.PC	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SL.TLF.CACT.ZS	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>3</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+      <v>4</v>
+      <v>5</v>
+      <v>4</v>
+      <v>4</v>
+      <v>6</v>
+      <v>7</v>
+      <v>8</v>
+      <v>1</v>
+      <v>7</v>
+      <v>9</v>
+      <v>10</v>
+      <v>7</v>
+      <v>11</v>
+      <v>12</v>
+      <v>13</v>
+      <v>7</v>
+      <v>7</v>
+      <v>14</v>
+      <v>7</v>
+      <v>15</v>
+      <v>16</v>
+      <v>17</v>
+      <v>18</v>
+      <v>7</v>
+      <v>1</v>
+      <v>7</v>
+      <v>7</v>
+      <v>7</v>
+      <v>7</v>
+      <v>7</v>
+      <v>7</v>
+      <v>7</v>
+      <v>7</v>
+      <v>7</v>
+      <v>7</v>
+      <v>19</v>
+    </spb>
+    <spb s="2">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="3">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="4">
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="5">
+      <v>22</v>
+      <v>22</v>
+      <v>23</v>
+      <v>22</v>
+    </spb>
+    <spb s="6">
+      <v>1</v>
+      <v>2</v>
+      <v>3</v>
+    </spb>
+    <spb s="7">
+      <v>https://www.bing.com</v>
+      <v>https://www.bing.com/th?id=Ga%5Cbing_yt.png&amp;w=100&amp;h=40&amp;c=0&amp;pid=0.1</v>
+      <v>Powered by Bing</v>
+    </spb>
+    <spb s="8">
+      <v>2019</v>
+      <v>2019</v>
+      <v>square km</v>
+      <v>per thousand (2018)</v>
+      <v>2021</v>
+      <v>2019</v>
+      <v>2018</v>
+      <v>per liter (2016)</v>
+      <v>2019</v>
+      <v>years (2018)</v>
+      <v>2018</v>
+      <v>per thousand (2018)</v>
+      <v>2019</v>
+      <v>2017</v>
+      <v>2016</v>
+      <v>2019</v>
+      <v>2016</v>
+      <v>2017</v>
+      <v>kilotons per year (2016)</v>
+      <v>deaths per 100,000 (2017)</v>
+      <v>kWh (2014)</v>
+      <v>2015</v>
+      <v>2018</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2015</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2019</v>
+    </spb>
+    <spb s="9">
+      <v>4</v>
+    </spb>
+    <spb s="9">
+      <v>5</v>
+    </spb>
+    <spb s="9">
+      <v>6</v>
+    </spb>
+    <spb s="9">
+      <v>7</v>
+    </spb>
+    <spb s="9">
+      <v>8</v>
+    </spb>
+    <spb s="9">
+      <v>9</v>
+    </spb>
+    <spb s="9">
+      <v>10</v>
+    </spb>
+    <spb s="9">
+      <v>11</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Belgium	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="9">
+      <v>12</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Cia	travel.state.gov	</v>
+      <v xml:space="preserve">CC-BY-SA			</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Netherlands	https://www.cia.gov/library/publications/the-world-factbook/geos/nl.html?Transportation	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/Netherlands.html	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/			</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Netherlands	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Cia	</v>
+      <v xml:space="preserve">CC-BY-SA		</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Netherlands	https://www.cia.gov/library/publications/the-world-factbook/geos/nl.html?Transportation	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/		</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Cia	travel.state.gov	Sec	</v>
+      <v xml:space="preserve">CC-BY-SA				</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Netherlands	https://www.cia.gov/library/publications/the-world-factbook/geos/nl.html?Transportation	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/Netherlands.html	https://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=0001936623	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/				</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Cia	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://www.cia.gov/library/publications/the-world-factbook/geos/nl.html?Transportation	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="10">
+      <v>0</v>
+      <v>38</v>
+      <v>2</v>
+      <v>2</v>
+      <v>3</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+      <v>39</v>
+      <v>40</v>
+      <v>41</v>
+      <v>39</v>
+      <v>39</v>
+      <v>42</v>
+      <v>8</v>
+      <v>38</v>
+      <v>42</v>
+      <v>9</v>
+      <v>39</v>
+      <v>42</v>
+      <v>11</v>
+      <v>12</v>
+      <v>13</v>
+      <v>42</v>
+      <v>42</v>
+      <v>41</v>
+      <v>42</v>
+      <v>15</v>
+      <v>16</v>
+      <v>17</v>
+      <v>18</v>
+      <v>42</v>
+      <v>38</v>
+      <v>42</v>
+      <v>42</v>
+      <v>42</v>
+      <v>42</v>
+      <v>42</v>
+      <v>42</v>
+      <v>42</v>
+      <v>42</v>
+      <v>42</v>
+      <v>42</v>
+      <v>19</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="8">
+      <v>2019</v>
+      <v>2019</v>
+      <v>square km</v>
+      <v>per thousand (2018)</v>
+      <v>2022</v>
+      <v>2019</v>
+      <v>2018</v>
+      <v>per liter (2016)</v>
+      <v>2019</v>
+      <v>years (2018)</v>
+      <v>2018</v>
+      <v>per thousand (2018)</v>
+      <v>2019</v>
+      <v>2017</v>
+      <v>2016</v>
+      <v>2019</v>
+      <v>2016</v>
+      <v>2017</v>
+      <v>kilotons per year (2016)</v>
+      <v>deaths per 100,000 (2017)</v>
+      <v>kWh (2014)</v>
+      <v>2015</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2015</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2019</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Netherlands	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Cia	travel.state.gov	</v>
+      <v xml:space="preserve">CC-BY-SA			</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Luxembourg	https://www.cia.gov/library/publications/the-world-factbook/geos/lu.html?Transportation	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/Luxembourg.html	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/			</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Luxembourg	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Wikipedia	travel.state.gov	Sec	</v>
+      <v xml:space="preserve">CC-BY-SA	CC-BY-SA			</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Luxembourg	http://fr.wikipedia.org/wiki/Luxembourg_(pays)	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/Luxembourg.html	https://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=0001936288	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	http://creativecommons.org/licenses/by-sa/3.0/			</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">travel.state.gov	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/Luxembourg.html	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Cia	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://www.cia.gov/library/publications/the-world-factbook/geos/lu.html?Transportation	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Luxembourg	http://nl.wikipedia.org/wiki/Luxemburg	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="11">
+      <v>0</v>
+      <v>47</v>
+      <v>2</v>
+      <v>2</v>
+      <v>3</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+      <v>48</v>
+      <v>48</v>
+      <v>49</v>
+      <v>48</v>
+      <v>48</v>
+      <v>50</v>
+      <v>51</v>
+      <v>8</v>
+      <v>47</v>
+      <v>51</v>
+      <v>9</v>
+      <v>52</v>
+      <v>51</v>
+      <v>11</v>
+      <v>12</v>
+      <v>13</v>
+      <v>51</v>
+      <v>51</v>
+      <v>49</v>
+      <v>51</v>
+      <v>15</v>
+      <v>16</v>
+      <v>17</v>
+      <v>18</v>
+      <v>51</v>
+      <v>47</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>19</v>
+    </spb>
+    <spb s="2">
+      <v>2</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="8">
+      <v>2019</v>
+      <v>2019</v>
+      <v>square km</v>
+      <v>per thousand (2018)</v>
+      <v>2021</v>
+      <v>2019</v>
+      <v>2018</v>
+      <v>per liter (2016)</v>
+      <v>2019</v>
+      <v>years (2018)</v>
+      <v>2018</v>
+      <v>per thousand (2018)</v>
+      <v>2019</v>
+      <v>2017</v>
+      <v>2016</v>
+      <v>2019</v>
+      <v>2016</v>
+      <v>2017</v>
+      <v>kilotons per year (2016)</v>
+      <v>deaths per 100,000 (2017)</v>
+      <v>kWh (2014)</v>
+      <v>2015</v>
+      <v>2019</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2015</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2019</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Luxembourg	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	US Census	US Census	</v>
+      <v xml:space="preserve">CC-BY-SA			</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/United_States	https://www.census.gov/popest/data/state/asrh/2014/files/SC-EST2014-AGESEX-CIV.csv	http://www.census.gov/quickfacts/table/VET605214/	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/			</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/United_States	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	US Census	Cia	</v>
+      <v xml:space="preserve">CC-BY-SA			</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/United_States	https://www.census.gov/popest/data/state/asrh/2014/files/SC-EST2014-AGESEX-CIV.csv	https://www.cia.gov/library/publications/the-world-factbook/geos/us.html?Transportation	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/			</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	US Census	US Census	Sec	</v>
+      <v xml:space="preserve">CC-BY-SA				</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/United_States	https://www.census.gov/popest/data/state/asrh/2014/files/SC-EST2014-AGESEX-CIV.csv	http://www.census.gov/quickfacts/table/VET605214/	https://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=0001582635	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/				</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">US Census	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://www.census.gov/popest/data/state/asrh/2014/files/SC-EST2014-AGESEX-CIV.csv	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Wikipedia	Wikidata	</v>
+      <v xml:space="preserve">CC-BY-SA	CC-BY-SA		</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/United_States	https://en.wikipedia.org/wiki/United_States	https://www.wikidata.org/wiki/Q30	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	http://creativecommons.org/licenses/by-sa/3.0/		</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	US Census	Cia	US Census	Sec	</v>
+      <v xml:space="preserve">CC-BY-SA					</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/United_States	https://www.census.gov/popest/data/state/asrh/2014/files/SC-EST2014-AGESEX-CIV.csv	https://www.cia.gov/library/publications/the-world-factbook/geos/us.html?Transportation	http://www.census.gov/quickfacts/table/VET605214/	https://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=0001582635	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/					</v>
+    </spb>
+    <spb s="12">
+      <v>0</v>
+      <v>57</v>
+      <v>2</v>
+      <v>2</v>
+      <v>3</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+      <v>58</v>
+      <v>59</v>
+      <v>60</v>
+      <v>58</v>
+      <v>58</v>
+      <v>8</v>
+      <v>57</v>
+      <v>61</v>
+      <v>9</v>
+      <v>62</v>
+      <v>61</v>
+      <v>11</v>
+      <v>12</v>
+      <v>13</v>
+      <v>61</v>
+      <v>63</v>
+      <v>61</v>
+      <v>15</v>
+      <v>16</v>
+      <v>17</v>
+      <v>18</v>
+      <v>61</v>
+      <v>57</v>
+      <v>61</v>
+      <v>61</v>
+      <v>61</v>
+      <v>61</v>
+      <v>61</v>
+      <v>61</v>
+      <v>61</v>
+      <v>61</v>
+      <v>61</v>
+      <v>61</v>
+      <v>19</v>
+    </spb>
+    <spb s="8">
+      <v>2019</v>
+      <v>2019</v>
+      <v>square km</v>
+      <v>per thousand (2018)</v>
+      <v>2021</v>
+      <v>2022</v>
+      <v>2018</v>
+      <v>per liter (2016)</v>
+      <v>2019</v>
+      <v>years (2018)</v>
+      <v>2019</v>
+      <v>per thousand (2018)</v>
+      <v>2019</v>
+      <v>2017</v>
+      <v>2016</v>
+      <v>2020</v>
+      <v>2016</v>
+      <v>2017</v>
+      <v>kilotons per year (2016)</v>
+      <v>deaths per 100,000 (2017)</v>
+      <v>kWh (2014)</v>
+      <v>2015</v>
+      <v>2018</v>
+      <v>2016</v>
+      <v>2016</v>
+      <v>2016</v>
+      <v>2016</v>
+      <v>2016</v>
+      <v>2015</v>
+      <v>2016</v>
+      <v>2016</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2019</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/United_States	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="2">
+      <v>3</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="13">
+      <v>22</v>
+      <v>22</v>
+      <v>22</v>
+      <v>22</v>
+    </spb>
+    <spb s="14">
+      <v>10</v>
+      <v>8</v>
+      <v>8</v>
+      <v>10</v>
+      <v>1</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
+      <v>5</v>
+      <v>12</v>
+      <v>11</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
+      <v>13</v>
+      <v>7</v>
+      <v>6</v>
+      <v>5</v>
+      <v>10</v>
+      <v>10</v>
+      <v>12</v>
+    </spb>
+    <spb s="15">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+    <spb s="2">
+      <v>4</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="16">
+      <v>23</v>
+      <v>22</v>
+      <v>22</v>
+      <v>22</v>
+      <v>22</v>
+    </spb>
+    <spb s="17">
+      <v>10</v>
+      <v>8</v>
+      <v>8</v>
+      <v>10</v>
+      <v>1</v>
+      <v>10</v>
+      <v>2</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
+      <v>5</v>
+      <v>12</v>
+      <v>11</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
+      <v>13</v>
+      <v>7</v>
+      <v>6</v>
+      <v>5</v>
+      <v>10</v>
+      <v>10</v>
+      <v>12</v>
+    </spb>
+    <spb s="18">
+      <v>Powered by Refinitiv</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="19">
+  <s>
+    <k n="SourceText" t="s"/>
+    <k n="LicenseText" t="s"/>
+    <k n="SourceAddress" t="s"/>
+    <k n="LicenseAddress" t="s"/>
+  </s>
+  <s>
+    <k n="CPI" t="spb"/>
+    <k n="GDP" t="spb"/>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Birth rate" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Abbreviation" t="spb"/>
+    <k n="Calling code" t="spb"/>
+    <k n="Minimum wage" t="spb"/>
+    <k n="Currency code" t="spb"/>
+    <k n="Official name" t="spb"/>
+    <k n="CPI Change (%)" t="spb"/>
+    <k n="Fertility rate" t="spb"/>
+    <k n="Gasoline price" t="spb"/>
+    <k n="Total tax rate" t="spb"/>
+    <k n="Life expectancy" t="spb"/>
+    <k n="National anthem" t="spb"/>
+    <k n="Tax revenue (%)" t="spb"/>
+    <k n="Infant mortality" t="spb"/>
+    <k n="Urban population" t="spb"/>
+    <k n="Armed forces size" t="spb"/>
+    <k n="Forested area (%)" t="spb"/>
+    <k n="Unemployment rate" t="spb"/>
+    <k n="Capital/Major City" t="spb"/>
+    <k n="Agricultural land (%)" t="spb"/>
+    <k n="Physicians per thousand" t="spb"/>
+    <k n="Carbon dioxide emissions" t="spb"/>
+    <k n="Maternal mortality ratio" t="spb"/>
+    <k n="Electric power consumption" t="spb"/>
+    <k n="Fossil fuel energy consumption" t="spb"/>
+    <k n="Market cap of listed companies" t="spb"/>
+    <k n="Population: Income share third 20%" t="spb"/>
+    <k n="Population: Income share fourth 20%" t="spb"/>
+    <k n="Population: Income share lowest 10%" t="spb"/>
+    <k n="Population: Income share lowest 20%" t="spb"/>
+    <k n="Population: Income share second 20%" t="spb"/>
+    <k n="Out of pocket health expenditure (%)" t="spb"/>
+    <k n="Population: Income share highest 10%" t="spb"/>
+    <k n="Population: Income share highest 20%" t="spb"/>
+    <k n="Gross primary education enrollment (%)" t="spb"/>
+    <k n="Gross tertiary education enrollment (%)" t="spb"/>
+    <k n="Population: Labor force participation (%)" t="spb"/>
+  </s>
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="VDPID/VSID" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Name" t="i"/>
+    <k n="Image" t="i"/>
+    <k n="Description" t="i"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="CPI" t="s"/>
+    <k n="GDP" t="s"/>
+    <k n="Area" t="s"/>
+    <k n="Birth rate" t="s"/>
+    <k n="Population" t="s"/>
+    <k n="CPI Change (%)" t="s"/>
+    <k n="Fertility rate" t="s"/>
+    <k n="Gasoline price" t="s"/>
+    <k n="Total tax rate" t="s"/>
+    <k n="Life expectancy" t="s"/>
+    <k n="Tax revenue (%)" t="s"/>
+    <k n="Infant mortality" t="s"/>
+    <k n="Urban population" t="s"/>
+    <k n="Armed forces size" t="s"/>
+    <k n="Forested area (%)" t="s"/>
+    <k n="Unemployment rate" t="s"/>
+    <k n="Agricultural land (%)" t="s"/>
+    <k n="Physicians per thousand" t="s"/>
+    <k n="Carbon dioxide emissions" t="s"/>
+    <k n="Maternal mortality ratio" t="s"/>
+    <k n="Electric power consumption" t="s"/>
+    <k n="Fossil fuel energy consumption" t="s"/>
+    <k n="Market cap of listed companies" t="s"/>
+    <k n="Population: Income share third 20%" t="s"/>
+    <k n="Population: Income share fourth 20%" t="s"/>
+    <k n="Population: Income share lowest 10%" t="s"/>
+    <k n="Population: Income share lowest 20%" t="s"/>
+    <k n="Population: Income share second 20%" t="s"/>
+    <k n="Out of pocket health expenditure (%)" t="s"/>
+    <k n="Population: Income share highest 10%" t="s"/>
+    <k n="Population: Income share highest 20%" t="s"/>
+    <k n="Gross primary education enrollment (%)" t="s"/>
+    <k n="Gross tertiary education enrollment (%)" t="s"/>
+    <k n="Population: Labor force participation (%)" t="s"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="CPI" t="spb"/>
+    <k n="GDP" t="spb"/>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Birth rate" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Abbreviation" t="spb"/>
+    <k n="Calling code" t="spb"/>
+    <k n="Largest city" t="spb"/>
+    <k n="Minimum wage" t="spb"/>
+    <k n="Official name" t="spb"/>
+    <k n="CPI Change (%)" t="spb"/>
+    <k n="Fertility rate" t="spb"/>
+    <k n="Gasoline price" t="spb"/>
+    <k n="Total tax rate" t="spb"/>
+    <k n="Life expectancy" t="spb"/>
+    <k n="National anthem" t="spb"/>
+    <k n="Tax revenue (%)" t="spb"/>
+    <k n="Infant mortality" t="spb"/>
+    <k n="Urban population" t="spb"/>
+    <k n="Armed forces size" t="spb"/>
+    <k n="Forested area (%)" t="spb"/>
+    <k n="Unemployment rate" t="spb"/>
+    <k n="Capital/Major City" t="spb"/>
+    <k n="Agricultural land (%)" t="spb"/>
+    <k n="Physicians per thousand" t="spb"/>
+    <k n="Carbon dioxide emissions" t="spb"/>
+    <k n="Maternal mortality ratio" t="spb"/>
+    <k n="Electric power consumption" t="spb"/>
+    <k n="Fossil fuel energy consumption" t="spb"/>
+    <k n="Market cap of listed companies" t="spb"/>
+    <k n="Population: Income share third 20%" t="spb"/>
+    <k n="Population: Income share fourth 20%" t="spb"/>
+    <k n="Population: Income share lowest 10%" t="spb"/>
+    <k n="Population: Income share lowest 20%" t="spb"/>
+    <k n="Population: Income share second 20%" t="spb"/>
+    <k n="Out of pocket health expenditure (%)" t="spb"/>
+    <k n="Population: Income share highest 10%" t="spb"/>
+    <k n="Population: Income share highest 20%" t="spb"/>
+    <k n="Gross primary education enrollment (%)" t="spb"/>
+    <k n="Gross tertiary education enrollment (%)" t="spb"/>
+    <k n="Population: Labor force participation (%)" t="spb"/>
+  </s>
+  <s>
+    <k n="CPI" t="spb"/>
+    <k n="GDP" t="spb"/>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Birth rate" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Abbreviation" t="spb"/>
+    <k n="Calling code" t="spb"/>
+    <k n="Largest city" t="spb"/>
+    <k n="Minimum wage" t="spb"/>
+    <k n="Currency code" t="spb"/>
+    <k n="Official name" t="spb"/>
+    <k n="CPI Change (%)" t="spb"/>
+    <k n="Fertility rate" t="spb"/>
+    <k n="Gasoline price" t="spb"/>
+    <k n="Total tax rate" t="spb"/>
+    <k n="Life expectancy" t="spb"/>
+    <k n="National anthem" t="spb"/>
+    <k n="Tax revenue (%)" t="spb"/>
+    <k n="Infant mortality" t="spb"/>
+    <k n="Urban population" t="spb"/>
+    <k n="Armed forces size" t="spb"/>
+    <k n="Forested area (%)" t="spb"/>
+    <k n="Unemployment rate" t="spb"/>
+    <k n="Capital/Major City" t="spb"/>
+    <k n="Agricultural land (%)" t="spb"/>
+    <k n="Physicians per thousand" t="spb"/>
+    <k n="Carbon dioxide emissions" t="spb"/>
+    <k n="Maternal mortality ratio" t="spb"/>
+    <k n="Electric power consumption" t="spb"/>
+    <k n="Fossil fuel energy consumption" t="spb"/>
+    <k n="Market cap of listed companies" t="spb"/>
+    <k n="Population: Income share third 20%" t="spb"/>
+    <k n="Population: Income share fourth 20%" t="spb"/>
+    <k n="Population: Income share lowest 10%" t="spb"/>
+    <k n="Population: Income share lowest 20%" t="spb"/>
+    <k n="Population: Income share second 20%" t="spb"/>
+    <k n="Out of pocket health expenditure (%)" t="spb"/>
+    <k n="Population: Income share highest 10%" t="spb"/>
+    <k n="Population: Income share highest 20%" t="spb"/>
+    <k n="Gross primary education enrollment (%)" t="spb"/>
+    <k n="Gross tertiary education enrollment (%)" t="spb"/>
+    <k n="Population: Labor force participation (%)" t="spb"/>
+  </s>
+  <s>
+    <k n="CPI" t="spb"/>
+    <k n="GDP" t="spb"/>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Birth rate" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Abbreviation" t="spb"/>
+    <k n="Calling code" t="spb"/>
+    <k n="Largest city" t="spb"/>
+    <k n="Minimum wage" t="spb"/>
+    <k n="Currency code" t="spb"/>
+    <k n="Fertility rate" t="spb"/>
+    <k n="Gasoline price" t="spb"/>
+    <k n="Total tax rate" t="spb"/>
+    <k n="Life expectancy" t="spb"/>
+    <k n="National anthem" t="spb"/>
+    <k n="Tax revenue (%)" t="spb"/>
+    <k n="Infant mortality" t="spb"/>
+    <k n="Urban population" t="spb"/>
+    <k n="Armed forces size" t="spb"/>
+    <k n="Forested area (%)" t="spb"/>
+    <k n="Capital/Major City" t="spb"/>
+    <k n="Agricultural land (%)" t="spb"/>
+    <k n="Physicians per thousand" t="spb"/>
+    <k n="Carbon dioxide emissions" t="spb"/>
+    <k n="Maternal mortality ratio" t="spb"/>
+    <k n="Electric power consumption" t="spb"/>
+    <k n="Fossil fuel energy consumption" t="spb"/>
+    <k n="Market cap of listed companies" t="spb"/>
+    <k n="Population: Income share third 20%" t="spb"/>
+    <k n="Population: Income share fourth 20%" t="spb"/>
+    <k n="Population: Income share lowest 10%" t="spb"/>
+    <k n="Population: Income share lowest 20%" t="spb"/>
+    <k n="Population: Income share second 20%" t="spb"/>
+    <k n="Out of pocket health expenditure (%)" t="spb"/>
+    <k n="Population: Income share highest 10%" t="spb"/>
+    <k n="Population: Income share highest 20%" t="spb"/>
+    <k n="Gross primary education enrollment (%)" t="spb"/>
+    <k n="Gross tertiary education enrollment (%)" t="spb"/>
+    <k n="Population: Labor force participation (%)" t="spb"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+  <s>
+    <k n="Image" t="spb"/>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Image" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="IsTitleField" t="b"/>
+    <rPr n="IsHeroField" t="b"/>
+    <rPr n="RequiresInlineAttribution" t="b"/>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="2">1</rpv>
+    </rSty>
+    <rSty dxfid="3">
+      <rpv i="3">0.0%</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="3">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="2">
+      <rpv i="3">0.00</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="3">0</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="3">#,##0.00</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="3">0.0</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="3">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="3">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="6"/>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9F8BB2-A7D4-4D73-B4EF-8B9DAB4B8090}" name="Table2" displayName="Table2" ref="A1:A4" totalsRowShown="0">
-  <autoFilter ref="A1:A4" xr:uid="{9A9F8BB2-A7D4-4D73-B4EF-8B9DAB4B8090}"/>
-  <tableColumns count="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9F8BB2-A7D4-4D73-B4EF-8B9DAB4B8090}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{9A9F8BB2-A7D4-4D73-B4EF-8B9DAB4B8090}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CA193545-C65C-49EC-BD3D-67C267E75891}" name="country"/>
+    <tableColumn id="2" xr3:uid="{0D5ADBDC-D9E8-43E8-A842-FAA2BA98938A}" name="Area">
+      <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[country]],"Area")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00612EEA-BA62-4FB5-B117-C85BD8B7AA23}" name="Flag">
+      <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[country]],"Image")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4729CC92-25A9-4DA4-BF56-0E5473384215}" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{4729CC92-25A9-4DA4-BF56-0E5473384215}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EC9CD194-9BE0-475B-8BD3-72406A3A57EE}" name="company"/>
+    <tableColumn id="5" xr3:uid="{27B58ABF-19F0-4B76-94AA-8AD5A1DBDF65}" name="Open" dataDxfId="0">
+      <calculatedColumnFormula array="1">_FV(Table1[[#This Row],[company]],"Open")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -429,35 +4660,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684B7264-C7A2-45CB-9A60-E35D0A983A24}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="10.31640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" cm="1" vm="2">
+        <f t="array" ref="B2">_FV(Table2[[#This Row],[country]],"Area")</f>
+        <v>30688</v>
+      </c>
+      <c r="C2" t="e" cm="1" vm="3">
+        <f t="array" ref="C2">_FV(Table2[[#This Row],[country]],"Image")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A3" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" cm="1" vm="5">
+        <f t="array" ref="B3">_FV(Table2[[#This Row],[country]],"Area")</f>
+        <v>41543</v>
+      </c>
+      <c r="C3" t="e" cm="1" vm="6">
+        <f t="array" ref="C3">_FV(Table2[[#This Row],[country]],"Image")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A4" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" cm="1" vm="8">
+        <f t="array" ref="B4">_FV(Table2[[#This Row],[country]],"Area")</f>
+        <v>2586.36</v>
+      </c>
+      <c r="C4" t="e" cm="1" vm="9">
+        <f t="array" ref="C4">_FV(Table2[[#This Row],[country]],"Image")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A5" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5" cm="1" vm="11">
+        <f t="array" ref="B5">_FV(Table2[[#This Row],[country]],"Area")</f>
+        <v>9826675</v>
+      </c>
+      <c r="C5" t="e" cm="1" vm="12">
+        <f t="array" ref="C5">_FV(Table2[[#This Row],[country]],"Image")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29ECF059-9BD1-420D-A168-C8FEB500E48D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="35.76953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A2" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="1" cm="1">
+        <f t="array" ref="B2">_FV(Table1[[#This Row],[company]],"Open")</f>
+        <v>194.67</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A3" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="1" cm="1">
+        <f t="array" ref="B3">_FV(Table1[[#This Row],[company]],"Open")</f>
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A4" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" s="1" cm="1">
+        <f t="array" ref="B4">_FV(Table1[[#This Row],[company]],"Open")</f>
+        <v>85.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A5" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5" s="1" cm="1">
+        <f t="array" ref="B5">_FV(Table1[[#This Row],[company]],"Open")</f>
+        <v>101.5</v>
       </c>
     </row>
   </sheetData>
